--- a/Team Status/Team_Status_Workbook.xlsx
+++ b/Team Status/Team_Status_Workbook.xlsx
@@ -9,9 +9,10 @@
   <sheets>
     <sheet name="Joe Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Team Breakdown Tracker" sheetId="4" r:id="rId2"/>
-    <sheet name="Code" sheetId="2" r:id="rId3"/>
+    <sheet name="Status (doc)" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_GoBack" localSheetId="2">'Status (doc)'!$A$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Joe Tracker'!$B$1:$E$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Joe Tracker'!$2:$2</definedName>
   </definedNames>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="100">
   <si>
     <t>Use Case Scenarios</t>
   </si>
@@ -46,9 +47,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Will be 100% once CRC cards complete</t>
-  </si>
-  <si>
     <t>Connection object mostly functional</t>
   </si>
   <si>
@@ -298,13 +296,31 @@
     <t>Bryan</t>
   </si>
   <si>
-    <t>Complete code working interface</t>
-  </si>
-  <si>
     <t>At login working backwards now</t>
   </si>
   <si>
     <t>Technical (Functional)Specs</t>
+  </si>
+  <si>
+    <t>Simran currently working ECD 14 March</t>
+  </si>
+  <si>
+    <t>Zane Ryen / Frontend--Kelly Bryan Simran / Backend</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Currently working through section 4</t>
+  </si>
+  <si>
+    <t>Submitted to Joe for Review</t>
+  </si>
+  <si>
+    <t>Concept and pseudo code complete</t>
   </si>
 </sst>
 </file>
@@ -488,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -570,12 +586,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="R6" sqref="R5:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,153 +918,169 @@
     <col min="4" max="4" width="53.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="36">
+      <c r="C6" s="37">
         <f ca="1">TODAY()</f>
-        <v>41705</v>
-      </c>
-      <c r="D6" s="36"/>
-    </row>
-    <row r="8" spans="2:4" s="3" customFormat="1" ht="30">
+        <v>41709</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="8" spans="2:8" s="3" customFormat="1" ht="30">
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:8">
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="D9" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="D10" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="33">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>0.33</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="D12" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="2:4" s="3" customFormat="1" ht="30">
+    <row r="15" spans="2:8" s="3" customFormat="1" ht="30">
       <c r="B15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:8">
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>92</v>
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -1055,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>7</v>
@@ -1063,42 +1099,57 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="4">
-        <v>0.6</v>
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4">
-        <v>0.75</v>
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="33">
-        <v>0.3</v>
+        <v>0.2</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="4">
-        <v>0.8</v>
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1124,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:M22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,13 +1204,13 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="20">
         <v>0.2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="23"/>
     </row>
@@ -1193,38 +1244,38 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="20">
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="C4" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="B5" s="12"/>
       <c r="C5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:26">
       <c r="C6" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -1258,170 +1309,170 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="20">
         <v>0.2</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="12"/>
       <c r="C9" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="C10" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="C11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="C12" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="C13" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="C14" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="C15" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:26">
       <c r="C16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:26">
       <c r="C17" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:26">
       <c r="C18" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:26">
       <c r="C19" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:26">
       <c r="C20" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:26">
       <c r="C21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:26">
       <c r="C22" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:26">
       <c r="C23" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L23" s="26"/>
       <c r="M23" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -1454,104 +1505,104 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="20">
         <v>0.2</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="13"/>
       <c r="F25" s="11"/>
       <c r="G25" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:26">
       <c r="C26" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="C27" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:26">
       <c r="C28" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:26">
       <c r="C29" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:26">
       <c r="C30" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -1560,11 +1611,11 @@
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
       <c r="G31" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -1573,11 +1624,11 @@
       <c r="E32" s="12"/>
       <c r="F32" s="11"/>
       <c r="G32" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="3:9">
@@ -1586,11 +1637,11 @@
       <c r="E33" s="12"/>
       <c r="F33" s="11"/>
       <c r="G33" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="3:9">
@@ -1599,11 +1650,11 @@
       <c r="E34" s="12"/>
       <c r="F34" s="11"/>
       <c r="G34" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="3:9">
@@ -1612,11 +1663,11 @@
       <c r="E35" s="12"/>
       <c r="F35" s="11"/>
       <c r="G35" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="3:9">
@@ -1625,11 +1676,11 @@
       <c r="E36" s="12"/>
       <c r="F36" s="11"/>
       <c r="G36" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="3:9">
@@ -1638,194 +1689,194 @@
       <c r="E37" s="12"/>
       <c r="F37" s="11"/>
       <c r="G37" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="3:9">
       <c r="H38" s="13"/>
       <c r="I38" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="3:9">
       <c r="G40" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="3:9">
       <c r="G41" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="3:9">
       <c r="G42" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="3:9">
       <c r="G43" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="3:9">
       <c r="G44" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="3:9">
       <c r="G45" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="3:9">
       <c r="G46" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="3:9">
       <c r="G47" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="3:9">
       <c r="G48" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:36">
       <c r="G49" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:36">
       <c r="G50" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:36">
       <c r="G51" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:36">
       <c r="G52" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:36">
       <c r="H53" s="13"/>
       <c r="I53" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:36">
       <c r="G55" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:36">
       <c r="G56" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:36">
       <c r="G57" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:36">
       <c r="G58" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:36">
       <c r="G59" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:36">
       <c r="G60" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:36">
       <c r="G61" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:36">
@@ -1868,329 +1919,329 @@
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="20">
         <v>0.2</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="13"/>
       <c r="G63" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:36">
       <c r="C64" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="3:9">
       <c r="C65" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="3:9">
       <c r="C66" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="3:9">
       <c r="C67" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="3:9">
       <c r="C68" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="3:9">
       <c r="G69" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="3:9">
       <c r="G70" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="3:9">
       <c r="G71" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="3:9">
       <c r="G72" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="3:9">
       <c r="G73" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="3:9">
       <c r="G74" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="3:9">
       <c r="G75" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="3:9">
       <c r="H76" s="13"/>
       <c r="I76" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="3:9">
       <c r="G78" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H78" s="13"/>
     </row>
     <row r="79" spans="3:9">
       <c r="G79" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H79" s="13"/>
       <c r="I79" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="3:9">
       <c r="G80" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="7:9" s="11" customFormat="1">
       <c r="G81" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81" s="13"/>
       <c r="I81" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="7:9" s="11" customFormat="1">
       <c r="G82" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="7:9" s="11" customFormat="1">
       <c r="G83" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="7:9" s="11" customFormat="1">
       <c r="G84" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="7:9" s="11" customFormat="1">
       <c r="G85" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="7:9" s="11" customFormat="1">
       <c r="G86" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="7:9" s="11" customFormat="1">
       <c r="G87" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="7:9" s="11" customFormat="1">
       <c r="G88" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="7:9" s="11" customFormat="1">
       <c r="G89" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="7:9" s="11" customFormat="1">
       <c r="G90" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="7:9" s="11" customFormat="1">
       <c r="H91" s="13"/>
       <c r="I91" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="7:9" s="11" customFormat="1">
       <c r="G93" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H93" s="13"/>
     </row>
     <row r="94" spans="7:9" s="11" customFormat="1">
       <c r="G94" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="7:9" s="11" customFormat="1">
       <c r="G95" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="7:9" s="11" customFormat="1">
       <c r="G96" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="7:9" s="11" customFormat="1">
       <c r="G97" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2203,10 +2254,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId3"/>
+  </oleObjects>
 </worksheet>
 </file>